--- a/HW_design/Libaas_System/Libaas_System_1.xlsx
+++ b/HW_design/Libaas_System/Libaas_System_1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="139">
   <si>
     <t>Comment</t>
   </si>
@@ -74,18 +74,9 @@
     <t>47uF</t>
   </si>
   <si>
-    <t>CAP ALUM 47uF 63V 20% SMD</t>
-  </si>
-  <si>
     <t>C3</t>
   </si>
   <si>
-    <t>CAPAE-D10_H1050</t>
-  </si>
-  <si>
-    <t>EEE-TG1J470P</t>
-  </si>
-  <si>
     <t>470uF</t>
   </si>
   <si>
@@ -137,9 +128,6 @@
     <t>BZT52C36-HE3-18</t>
   </si>
   <si>
-    <t>DIODE ZENER 36V 8mA SOD-123</t>
-  </si>
-  <si>
     <t>D4</t>
   </si>
   <si>
@@ -444,6 +432,18 @@
   </si>
   <si>
     <t>Quantity_purchase</t>
+  </si>
+  <si>
+    <t>36V Zener TH Hole</t>
+  </si>
+  <si>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>ELNA</t>
+  </si>
+  <si>
+    <t>CAP ALUM 47uF 50V 20% SMD</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,6 +475,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,7 +525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -549,7 +555,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -835,8 +844,8 @@
   </sheetPr>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -868,17 +877,17 @@
         <v>4</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -897,14 +906,14 @@
         <v>4</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H2" s="3">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -923,102 +932,102 @@
         <v>9</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H3" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
+      <c r="D4" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H4" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H5" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="F6" s="3">
         <v>1</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H6" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>28</v>
+      <c r="A7" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3">
@@ -1030,17 +1039,17 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>28</v>
+      <c r="A8" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="3">
@@ -1052,17 +1061,17 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>28</v>
+      <c r="A9" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="3">
@@ -1074,17 +1083,17 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>28</v>
+      <c r="A10" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="3">
@@ -1096,17 +1105,17 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>28</v>
+      <c r="A11" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="3">
@@ -1118,52 +1127,48 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>31</v>
+      <c r="E12" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H12" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="A13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="3">
         <v>1</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H13" s="3">
         <v>10</v>
@@ -1171,19 +1176,19 @@
     </row>
     <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -1194,72 +1199,72 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>130</v>
+      <c r="A15" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="F15" s="3">
         <v>1</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H15" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>47</v>
+      <c r="A16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="F16" s="3">
         <v>2</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H16" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>48</v>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F17" s="3">
         <v>1</v>
@@ -1270,20 +1275,20 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>51</v>
+      <c r="A18" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F18" s="3">
         <v>3</v>
@@ -1294,46 +1299,46 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>54</v>
+      <c r="A19" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F19" s="3">
         <v>1</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H19" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
@@ -1344,46 +1349,46 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F21" s="3">
         <v>1</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H21" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>135</v>
+      <c r="A22" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F22" s="7">
         <v>1</v>
@@ -1394,20 +1399,20 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="F23" s="3">
         <v>1</v>
@@ -1418,20 +1423,20 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="F24" s="3">
         <v>2</v>
@@ -1442,20 +1447,20 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="F25" s="3">
         <v>3</v>
@@ -1467,25 +1472,25 @@
     </row>
     <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F26" s="3">
         <v>2</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H26" s="3">
         <v>40</v>
@@ -1493,123 +1498,123 @@
     </row>
     <row r="27" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F27" s="3">
         <v>5</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H27" s="3">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>95</v>
+      <c r="A28" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F28" s="3">
         <v>1</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H28" s="3">
         <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>99</v>
+      <c r="A29" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F29" s="3">
         <v>1</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H29" s="3">
         <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>103</v>
+      <c r="A30" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F30" s="3">
         <v>1</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H30" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>106</v>
+      <c r="A31" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F31" s="3">
         <v>1</v>
@@ -1620,20 +1625,20 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>109</v>
+      <c r="A32" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F32" s="3">
         <v>1</v>

--- a/HW_design/Libaas_System/Libaas_System_1.xlsx
+++ b/HW_design/Libaas_System/Libaas_System_1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="156">
   <si>
     <t>Comment</t>
   </si>
@@ -200,9 +200,6 @@
     <t>P1</t>
   </si>
   <si>
-    <t>HDR1X8</t>
-  </si>
-  <si>
     <t>Header 8</t>
   </si>
   <si>
@@ -290,12 +287,6 @@
     <t>TNPW06034K70BEEA</t>
   </si>
   <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>RES THK FLM 182Ohm 1% 1/10W 0603</t>
-  </si>
-  <si>
     <t>R5, R11, R12, R13, R14</t>
   </si>
   <si>
@@ -407,9 +398,6 @@
     <t>TZX36C-TAP / 1N5258B-TR / Leaded will also work if SMD not available</t>
   </si>
   <si>
-    <t>SZMM3Z15VT1G</t>
-  </si>
-  <si>
     <t>DIODE ZENER 15V 10mA 300mW 5% SOD323</t>
   </si>
   <si>
@@ -444,19 +432,88 @@
   </si>
   <si>
     <t>CAP ALUM 47uF 50V 20% SMD</t>
+  </si>
+  <si>
+    <t>Rajiv total</t>
+  </si>
+  <si>
+    <t>Mouser Total</t>
+  </si>
+  <si>
+    <t>Mouser rate</t>
+  </si>
+  <si>
+    <t>Mouser part n</t>
+  </si>
+  <si>
+    <t>CL21B104KCFSFNE</t>
+  </si>
+  <si>
+    <t>Home buy</t>
+  </si>
+  <si>
+    <t>BZT52-B15X</t>
+  </si>
+  <si>
+    <t>Bergstrips</t>
+  </si>
+  <si>
+    <t>RK73B2ETTD100J</t>
+  </si>
+  <si>
+    <t>CRCW06034K70JNEBC</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>RES THK FLM 180Ohm 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>RK73B1JTTDD181J</t>
+  </si>
+  <si>
+    <t>EACH RATE</t>
+  </si>
+  <si>
+    <t>MMSZ5236B-7-F / Suggest nearby Value for same specifications</t>
+  </si>
+  <si>
+    <t>BZT52-B15X or SZMM3Z15VT1G</t>
+  </si>
+  <si>
+    <t>KSC243GLFG</t>
+  </si>
+  <si>
+    <t>KSC2XXG</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>SW TACT SPST-NO 32V 10mA GULLWING</t>
+  </si>
+  <si>
+    <t>KSC2-SPST-NO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -485,7 +542,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -521,11 +578,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -559,6 +627,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -842,25 +917,30 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K38" sqref="K37:L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19" style="5" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" style="5" customWidth="1"/>
     <col min="3" max="3" width="17" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" style="5" customWidth="1"/>
     <col min="5" max="5" width="19" style="5" customWidth="1"/>
     <col min="6" max="6" width="16.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" style="5" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="16.44140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" customWidth="1"/>
+    <col min="10" max="11" width="13.109375" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" customWidth="1"/>
+    <col min="13" max="13" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -877,16 +957,31 @@
         <v>4</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
@@ -906,13 +1001,23 @@
         <v>4</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H2" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="I2">
+        <v>1.2</v>
+      </c>
+      <c r="J2">
+        <f>I2*H2</f>
+        <v>60</v>
+      </c>
+      <c r="L2" s="13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>10</v>
       </c>
@@ -932,39 +1037,67 @@
         <v>9</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H3" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="I3">
+        <v>0.65</v>
+      </c>
+      <c r="J3">
+        <f>I3*H3</f>
+        <v>65</v>
+      </c>
+      <c r="K3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L3">
+        <v>1.95</v>
+      </c>
+      <c r="M3">
+        <f>L3*H3</f>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H4" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <f>I4*H4</f>
+        <v>60</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M33" si="0">L4*H4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>16</v>
       </c>
@@ -984,13 +1117,24 @@
         <v>1</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H5" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>2.5</v>
+      </c>
+      <c r="J5">
+        <f>I5*H5</f>
+        <v>25</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>20</v>
       </c>
@@ -1010,24 +1154,35 @@
         <v>1</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H6" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>2.5</v>
+      </c>
+      <c r="J6">
+        <f>I6*H6</f>
+        <v>50</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3">
@@ -1035,21 +1190,32 @@
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>0.8</v>
+      </c>
+      <c r="J7">
+        <f>I7*H7</f>
+        <v>16</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="3">
@@ -1057,21 +1223,32 @@
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <f>I8*H8</f>
+        <v>20</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="3">
@@ -1079,21 +1256,32 @@
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9">
+        <v>0.8</v>
+      </c>
+      <c r="J9">
+        <f>I9*H9</f>
+        <v>16</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="3">
@@ -1101,10 +1289,21 @@
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <f>I10*H10</f>
+        <v>20</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>25</v>
       </c>
@@ -1112,7 +1311,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>27</v>
@@ -1123,10 +1322,21 @@
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I11">
+        <v>0.8</v>
+      </c>
+      <c r="J11">
+        <f>I11*H11</f>
+        <v>16</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
@@ -1140,41 +1350,68 @@
         <v>31</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>28</v>
+        <v>149</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H12" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12:J32" si="1">I12*H12</f>
+        <v>60</v>
+      </c>
+      <c r="L12">
+        <v>9.27</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>185.39999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="E13" s="6"/>
       <c r="F13" s="3">
         <v>1</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H13" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>13.8</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -1195,15 +1432,26 @@
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>39</v>
@@ -1212,19 +1460,33 @@
         <v>31</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="F15" s="3">
         <v>1</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H15" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="L15">
+        <v>11.46</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>229.20000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>20</v>
       </c>
@@ -1244,13 +1506,27 @@
         <v>2</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H16" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="L16">
+        <v>10.51</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>210.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>44</v>
       </c>
@@ -1273,8 +1549,16 @@
       <c r="H17" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>47</v>
       </c>
@@ -1295,10 +1579,21 @@
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="I18">
+        <v>8</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>50</v>
       </c>
@@ -1318,13 +1613,24 @@
         <v>1</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H19" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>65.92</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>659.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>54</v>
       </c>
@@ -1335,10 +1641,10 @@
         <v>56</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
@@ -1347,96 +1653,140 @@
       <c r="H20" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="E21" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H21" s="3">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>25</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="L21">
+        <v>53.35</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>533.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="H21" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="E22" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7">
         <v>1</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <v>7</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="F23" s="3">
         <v>1</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="F24" s="3">
         <v>2</v>
@@ -1445,176 +1795,268 @@
       <c r="H24" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I24">
+        <v>1.5</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="L24">
+        <v>9.27</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>370.79999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="F25" s="3">
         <v>3</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="I25">
+        <v>0.3</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F26" s="3">
         <v>2</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H26" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="L26">
+        <v>2.19</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="0"/>
+        <v>109.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F27" s="3">
         <v>5</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H27" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="I27">
+        <v>0.2</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="L27">
+        <v>0.73</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="0"/>
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H28" s="3">
+        <v>60</v>
+      </c>
+      <c r="I28">
+        <v>0.25</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="H28" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
+      <c r="D29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" s="3">
+        <v>60</v>
+      </c>
+      <c r="I29">
+        <v>0.25</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="H29" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
+      <c r="D30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="H30" s="3">
+        <v>12</v>
+      </c>
+      <c r="I30">
+        <v>6.25</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="H30" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F31" s="3">
         <v>1</v>
@@ -1623,22 +2065,33 @@
       <c r="H31" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="I31">
+        <v>750</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F32" s="3">
         <v>1</v>
@@ -1646,6 +2099,58 @@
       <c r="G32" s="10"/>
       <c r="H32" s="3">
         <v>10</v>
+      </c>
+      <c r="I32">
+        <v>30</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33"/>
+      <c r="H33" s="15">
+        <v>20</v>
+      </c>
+      <c r="L33">
+        <v>47.89</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="0"/>
+        <v>957.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J34">
+        <f>SUM(J2:J32)</f>
+        <v>2398</v>
+      </c>
+      <c r="M34">
+        <f>SUM(M2:M33)</f>
+        <v>4131.1000000000004</v>
       </c>
     </row>
   </sheetData>
